--- a/tl/P32110.MES.BIN.xlsx
+++ b/tl/P32110.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C47324C-5848-486B-9988-D10A788DE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2CF69-423C-4EFD-9071-0957A4ABABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="15825" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="16200" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P32110.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="136">
   <si>
     <t>Status</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>Oh, what about something like poetry?</t>
   </si>
   <si>
     <t>Oh, what about poetry or something like that?</t>
@@ -1028,10 +1031,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
@@ -1048,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1063,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>9</v>
@@ -1080,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1092,10 +1095,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1112,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1127,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1144,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1159,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1176,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -1191,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1208,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1223,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1240,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1252,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1272,7 +1275,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -1287,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1304,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1319,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1336,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1348,10 +1351,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1368,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1383,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1400,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1412,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1432,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -1447,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -1464,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1476,10 +1479,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1496,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
@@ -1511,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1528,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1543,7 +1546,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1560,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -1575,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1592,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1604,10 +1607,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1624,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -1636,10 +1639,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1656,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -1668,10 +1671,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1688,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
@@ -1700,10 +1703,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1720,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1735,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -1752,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>10</v>
@@ -1764,10 +1767,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -1784,7 +1787,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1799,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1816,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>18</v>
@@ -1831,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -1848,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1860,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -1880,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -1892,10 +1895,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -1912,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -1927,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -1944,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>18</v>
@@ -1959,7 +1962,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -1976,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1988,13 +1991,13 @@
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>9</v>
@@ -2008,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>10</v>
@@ -2023,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2040,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -2055,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>9</v>
@@ -2072,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>18</v>
@@ -2084,10 +2087,10 @@
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2104,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
@@ -2116,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2136,7 +2139,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
@@ -2148,10 +2151,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2168,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2183,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2200,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>10</v>
@@ -2215,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2232,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
@@ -2244,10 +2247,10 @@
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2264,7 +2267,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>18</v>
@@ -2279,7 +2282,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2296,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>18</v>
@@ -2311,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -2328,7 +2331,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>10</v>
@@ -2340,10 +2343,10 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2360,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -2375,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2392,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -2407,7 +2410,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2424,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2439,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2456,7 +2459,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>18</v>
@@ -2471,7 +2474,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -2488,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -2503,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
